--- a/AfDD_2020_Annex_Table_Tab19.xlsx
+++ b/AfDD_2020_Annex_Table_Tab19.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="173">
   <si>
     <t>Table 19: Trade by manufacturing intensity</t>
   </si>
@@ -526,7 +526,97 @@
     <t>Source: Authors calculations based on Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level), 2020.</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up the historic time series for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD2020</t>
+    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD2020</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -539,7 +629,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +752,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -840,9 +939,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -855,6 +956,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -873,7 +975,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -901,7 +1005,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -911,7 +1017,9 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -921,7 +1029,9 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -955,17 +1065,23 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1248,25 +1364,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.453125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.453125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="48" customWidth="1"/>
     <col min="8" max="9" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1280,3124 +1397,3157 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>37801.858968600398</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="15">
         <v>2849.0670321090201</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="15">
         <v>111.766358535051</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>40762.692359244502</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="15">
         <v>645.88345872044601</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>8273.2524234565499</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="15">
         <v>5556.0513139280101</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="16">
         <v>14475.187196105</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="18">
         <v>866.33483196210898</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="18">
         <v>96.709027862429707</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="19">
         <v>13.542575138449701</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="20">
         <v>976.58643496298805</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="19">
         <v>80.210854320883797</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="19">
         <v>704.90319661450405</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="19">
         <v>727.08686661207696</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="20">
         <v>1512.20091754746</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <v>2842.6682054667499</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="18">
         <v>5001.7494671971799</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="19">
         <v>130.17408480143601</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="20">
         <v>7974.5917574653604</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="19">
         <v>1526.2123471801301</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="19">
         <v>6470.04936855304</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="19">
         <v>2285.3948311764002</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="20">
         <v>10281.6565469096</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="18">
         <v>35900.307497254304</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="18">
         <v>61296.281969600699</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19">
         <v>17858.222861013499</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="20">
         <v>115054.812327868</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="19">
         <v>15204.4361482166</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="19">
         <v>48091.112694374096</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="19">
         <v>32312.454501112799</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="20">
         <v>95608.003343703502</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>642.084695655823</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="15">
         <v>10604.663034196499</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>195.468994987369</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <v>11442.2167248397</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="15">
         <v>1853.3609353727099</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <v>4660.5566452946696</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="15">
         <v>2633.56535080504</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="16">
         <v>9147.4829314724193</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="18">
         <v>1475.00803408706</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="18">
         <v>2717.24476562154</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="19">
         <v>260.923009131551</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="20">
         <v>4453.1758088401602</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="19">
         <v>285.77671589600999</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="19">
         <v>4063.4298862847099</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="19">
         <v>1654.58726770353</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="20">
         <v>6003.7938698842499</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="25">
         <v>79528.262233026398</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="25">
         <v>82565.715296587296</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="25">
         <v>18570.097883607399</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="26">
         <v>180664.075413221</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="25">
         <v>19595.880459706801</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="25">
         <v>72263.304214577496</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="25">
         <v>45169.140131337903</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="26">
         <v>137028.32480562199</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="18">
         <v>107.371042432666</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="18">
         <v>152.20682097792599</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="19">
         <v>9.5954273986816396</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="20">
         <v>269.17329080927402</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="19">
         <v>64.157038706541101</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="19">
         <v>524.07590923154396</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="19">
         <v>214.94706378901</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="20">
         <v>803.18001172709501</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="18">
         <v>2621.19082425034</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <v>1581.1508035198499</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="19">
         <v>33.378387378931102</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="20">
         <v>4235.7200151491197</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="19">
         <v>386.814794277668</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="19">
         <v>3210.1541164724799</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="19">
         <v>1916.99889902687</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="20">
         <v>5513.9678097770202</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="18">
         <v>79.313565970063195</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="18">
         <v>17.112020227670701</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="19">
         <v>3.0397348190545999</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="20">
         <v>99.465321016788494</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>13.6522821087837</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="19">
         <v>121.13880641460401</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="19">
         <v>77.977629828214702</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="20">
         <v>212.76871835160301</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>1385.94485208845</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="15">
         <v>140.76452909183499</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>4.8816886178255103</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="16">
         <v>1531.5910697981101</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="15">
         <v>64.906275759220094</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="15">
         <v>395.57755503332601</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="15">
         <v>277.01509636485599</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="16">
         <v>737.49892715740202</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>7304.2968369007103</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="15">
         <v>2673.4397113288601</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="15">
         <v>52.746221426486997</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="16">
         <v>10030.482769656101</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="15">
         <v>172.34897015488201</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="15">
         <v>1385.32529203737</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="15">
         <v>831.51807577359705</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="16">
         <v>2389.1923379658501</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="15">
         <v>3039.5825288480501</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="15">
         <v>7657.6634315825704</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="15">
         <v>22.495692012429199</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="16">
         <v>10719.741652443099</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="15">
         <v>301.98851370155802</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="15">
         <v>4230.0348788332903</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="15">
         <v>2436.36074369073</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="16">
         <v>6968.3841362255798</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="15">
         <v>4005.91522950339</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="15">
         <v>1718.46811089981</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="15">
         <v>10.547381523489999</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="16">
         <v>5734.9307219266902</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="15">
         <v>21.690618079900698</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="15">
         <v>559.42148042941096</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="15">
         <v>261.06681728959097</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="16">
         <v>842.17891579890295</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <v>4825.7454387749403</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="15">
         <v>866.77600696241905</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>52.414074604034397</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="16">
         <v>5744.9355203413998</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="15">
         <v>81.224089524984393</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="15">
         <v>1176.68808956659</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="15">
         <v>790.95078863716105</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="16">
         <v>2048.8629677287299</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="18">
         <v>13.293951576948199</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="18">
         <v>7.56628498876095</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="19">
         <v>2.34145912337303</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="20">
         <v>23.2016956890822</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>6.8098582154512401</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="19">
         <v>110.78126479423101</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="19">
         <v>42.798793582558602</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="20">
         <v>160.38991659224001</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="25">
         <v>23382.6542703456</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="25">
         <v>14815.1477195797</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="25">
         <v>191.44006690430601</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="26">
         <v>38389.2420568296</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="25">
         <v>1113.59244052899</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="25">
         <v>11713.197392812801</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="25">
         <v>6849.6339079825902</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="26">
         <v>19676.423741324401</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="18">
         <v>77.288550589680696</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="18">
         <v>23.401485418319702</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="19">
         <v>0.92030012214183998</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="20">
         <v>101.610336130142</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>11.3559379950762</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="19">
         <v>209.51306851887699</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="19">
         <v>134.26258367371599</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="20">
         <v>355.13159018766902</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="18">
         <v>68.599830545663906</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="18">
         <v>7.4957050638198899</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="19">
         <v>20.863594954490701</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="20">
         <v>96.959130563974398</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>187.81590814960001</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="19">
         <v>3879.1948834928298</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="19">
         <v>1433.85837764251</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="20">
         <v>5500.8691692849397</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="18">
         <v>342.565470677733</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="18">
         <v>140.09417938625799</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="19">
         <v>2.81814567828178</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="20">
         <v>485.47779574227297</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>17.988940938353501</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="19">
         <v>281.627681282759</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="19">
         <v>109.117849632025</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="20">
         <v>408.73447185313699</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="18">
         <v>1440.6722476337</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="18">
         <v>426.92783418417002</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="19">
         <v>538.87833889663204</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="20">
         <v>2406.4784207144999</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>250.53258614027499</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="19">
         <v>4192.1428860919495</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="19">
         <v>3870.7479736881301</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="20">
         <v>8313.4234459203508</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="18">
         <v>2943.6652776696701</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="18">
         <v>2015.08031468678</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="19">
         <v>1746.93295690799</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="20">
         <v>6705.6785492644303</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1278.6399819267999</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="19">
         <v>12044.846078557401</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="19">
         <v>6391.9365776640198</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="20">
         <v>19715.4226381482</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="18">
         <v>1589.43892770767</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="18">
         <v>1131.16331799316</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="19">
         <v>734.01470485663401</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="20">
         <v>3454.6169505574699</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>191.88467600369501</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="19">
         <v>2966.98902962494</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="19">
         <v>1051.2879339456599</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="20">
         <v>4210.1616395742903</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="18">
         <v>135.805499723792</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="18">
         <v>1506.2404101705599</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="19">
         <v>1052.5219362806099</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="20">
         <v>2694.5678461749599</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>537.25336059617996</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="19">
         <v>3504.3742124190298</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="19">
         <v>1770.9959422971001</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="20">
         <v>5812.6235153123098</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="18">
         <v>285.54121119117701</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="18">
         <v>658.66025992691505</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="19">
         <v>20.3091721858978</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="20">
         <v>964.51064330399095</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>101.912322822928</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="19">
         <v>845.43614799928696</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="19">
         <v>1034.60213802147</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="20">
         <v>1981.9506088436799</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="18">
         <v>22.492084915637999</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="18">
         <v>595.14715422964105</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="19">
         <v>310.82247682058801</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="20">
         <v>928.46171596586703</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>76.822955811977394</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="19">
         <v>795.79976483774203</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="19">
         <v>392.335175950527</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="20">
         <v>1264.95789660025</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="18">
         <v>322.370490417361</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="18">
         <v>150.329045276046</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="19">
         <v>9.6710232418775597</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="20">
         <v>482.37055893528498</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>120.66205278194001</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="19">
         <v>1949.9082659651001</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="19">
         <v>1270.50767668307</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="20">
         <v>3341.0779954301101</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="15">
         <v>1689.65463781786</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="15">
         <v>19.4898283268213</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <v>0.47974900341033999</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="16">
         <v>1709.6242151480899</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="15">
         <v>81.593319093942696</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="15">
         <v>438.99111969018003</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="15">
         <v>290.93454359948601</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="16">
         <v>811.518982383609</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="18">
         <v>2790.5486034423102</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="18">
         <v>1280.50172874177</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="19">
         <v>10.205795965075501</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="20">
         <v>4081.2561281491498</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>750.64027209341498</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="19">
         <v>3855.7608538711102</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="19">
         <v>2855.3802745361299</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="20">
         <v>7461.7814005006603</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="18">
         <v>1311.9032894586301</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="18">
         <v>2989.0709037706902</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="19">
         <v>1462.30457054925</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="20">
         <v>5763.2787637785696</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>423.16932694304001</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="19">
         <v>6805.0150617170302</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="19">
         <v>3733.2203727482602</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="20">
         <v>10961.404761408299</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="18">
         <v>1294.5557934871899</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="18">
         <v>2635.0308821601898</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="19">
         <v>217.47263635504299</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="20">
         <v>4147.0593120024196</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>312.33380915069603</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="19">
         <v>3988.62317658353</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="19">
         <v>1995.04407946026</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="20">
         <v>6296.0010651944904</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="25">
         <v>14315.101915278099</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="25">
         <v>13578.6330493351</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="25">
         <v>6128.2154018179199</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="26">
         <v>34021.950366431098</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="25">
         <v>4342.6054504479198</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="25">
         <v>45758.2222306517</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="25">
         <v>26334.231499542399</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="26">
         <v>76435.059180641998</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="15">
         <v>23538.967007917101</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="15">
         <v>14215.9902463281</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="15">
         <v>95.567054997444203</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="16">
         <v>37850.524309242603</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="15">
         <v>3756.5878203104699</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="15">
         <v>25187.466667274199</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="15">
         <v>14316.3860782059</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="16">
         <v>43260.440565790697</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="18">
         <v>9074.5431803334995</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="18">
         <v>20364.3642525297</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="19">
         <v>5730.7716499762601</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="20">
         <v>35169.679082839502</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>16087.181764183801</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="19">
         <v>48460.584909883699</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="19">
         <v>19172.582277972499</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="20">
         <v>83720.348952040003</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="15">
         <v>25452.657160325201</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="15">
         <v>2360.65828563285</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="15">
         <v>14.742689006090201</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="16">
         <v>27828.0581349641</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="15">
         <v>1384.26494079232</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="15">
         <v>6642.8045931229599</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="15">
         <v>4797.3586543083202</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="16">
         <v>12824.428188223599</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="15">
         <v>1007.91685836864</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="15">
         <v>1531.1753797429801</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="15">
         <v>15.1416932237148</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="16">
         <v>2554.23393133533</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="15">
         <v>325.77393349409101</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="15">
         <v>1697.51939695799</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="15">
         <v>1045.11798088253</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="16">
         <v>3068.4113113346102</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="18">
         <v>5752.1987472498404</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="18">
         <v>16542.5124094893</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="19">
         <v>11332.6409343542</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="20">
         <v>33627.3520910933</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>5520.3876892865901</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="19">
         <v>30104.5891038728</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="19">
         <v>12570.941678090099</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="20">
         <v>48195.918471249497</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="18">
         <v>1509.1296243999</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="18">
         <v>7429.6104693245898</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="19">
         <v>6518.3438045166704</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="20">
         <v>15457.083898241201</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>1585.7516516830899</v>
       </c>
-      <c r="H44" s="18">
+      <c r="H44" s="19">
         <v>13715.862952694701</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="19">
         <v>4813.8216959137899</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="20">
         <v>20115.436300291502</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="25">
         <v>66335.4125785941</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="25">
         <v>62444.311043047601</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="25">
         <v>23707.207826074398</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="26">
         <v>152486.93144771599</v>
       </c>
-      <c r="G45" s="24">
+      <c r="G45" s="25">
         <v>28659.947799750302</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="25">
         <v>125808.82762380601</v>
       </c>
-      <c r="I45" s="24">
+      <c r="I45" s="25">
         <v>56716.208365373197</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="26">
         <v>211184.98378893</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="18">
         <v>774.83892832696495</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="18">
         <v>421.22797649252402</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="19">
         <v>30.987889472723001</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="20">
         <v>1227.0547942922101</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>212.55360109388801</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="19">
         <v>3807.8071633037298</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="19">
         <v>1790.31221618617</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="20">
         <v>5810.6729805837904</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="18">
         <v>1021.33130529058</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="18">
         <v>4625.9531918592502</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="19">
         <v>46.207467693686503</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="20">
         <v>5693.4919648435098</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>97.519032751560204</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="19">
         <v>2681.9844361953701</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="19">
         <v>1257.8220941412501</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="20">
         <v>4037.3255630881799</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="18">
         <v>7.4559456114769</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="18">
         <v>91.059211990594903</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="19">
         <v>16.501539996028001</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="20">
         <v>115.0166975981</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>63.481042813897098</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="19">
         <v>550.20514086437197</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="19">
         <v>278.12624026501197</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="20">
         <v>891.81242394328103</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="18">
         <v>7319.6050093970298</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="18">
         <v>4550.1959666757602</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="19">
         <v>783.00645629143696</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="20">
         <v>12652.807432364199</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="19">
         <v>1794.55065156615</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="19">
         <v>6288.5783501091</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="19">
         <v>3180.8691801575401</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="20">
         <v>11263.9981818328</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="18">
         <v>72.9133536303044</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="18">
         <v>36.804930427074403</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="19">
         <v>4.8304706913232804</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="20">
         <v>114.548754748702</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>74.665462424397504</v>
       </c>
-      <c r="H50" s="18">
+      <c r="H50" s="19">
         <v>1252.6032707004599</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="19">
         <v>319.35609209966702</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="20">
         <v>1646.62482522452</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="15">
         <v>7991.5453657189601</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="15">
         <v>12398.215557408899</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="15">
         <v>290.99726912879902</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="16">
         <v>20680.758192256701</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="15">
         <v>834.22168895029995</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="15">
         <v>8938.1259451838705</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="15">
         <v>5186.9533363682003</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="16">
         <v>14959.3009705024</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="18">
         <v>2720.7687482944698</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="18">
         <v>3028.1750033439398</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="19">
         <v>15.3554059333801</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="20">
         <v>5764.2991575717897</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>261.576917811155</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="19">
         <v>2349.8894199500101</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="19">
         <v>1645.26760037386</v>
       </c>
-      <c r="J52" s="19">
+      <c r="J52" s="20">
         <v>4256.7339381350303</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="18">
         <v>135.34802838396999</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="18">
         <v>9.7097096562385605</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="19">
         <v>0.17856700158118999</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53" s="20">
         <v>145.23630504178999</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>26.999574679851499</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="19">
         <v>255.026452641726</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="19">
         <v>65.053678671240803</v>
       </c>
-      <c r="J53" s="19">
+      <c r="J53" s="20">
         <v>347.07970599281799</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="18">
         <v>567.86619675505199</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="18">
         <v>407.24376600325098</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="19">
         <v>328.79630671525001</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="20">
         <v>1303.9062694735501</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>41.320888298392298</v>
       </c>
-      <c r="H54" s="18">
+      <c r="H54" s="19">
         <v>1978.3096813159</v>
       </c>
-      <c r="I54" s="18">
+      <c r="I54" s="19">
         <v>2276.8721487366001</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="20">
         <v>4296.5027183508901</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="18">
         <v>190.068223673105</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="18">
         <v>2650.5339200682602</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="19">
         <v>22.599831334471698</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="20">
         <v>2863.20197507584</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="19">
         <v>182.65623826682599</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H55" s="19">
         <v>2287.7978502146002</v>
       </c>
-      <c r="I55" s="18">
+      <c r="I55" s="19">
         <v>1129.9997933089701</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J55" s="20">
         <v>3600.4538817903999</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="18">
         <v>177.39066868376699</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="18">
         <v>347.534637883306</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="19">
         <v>15.461531636238099</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="20">
         <v>540.38683820331096</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>56.400351256132097</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="19">
         <v>670.07050429773301</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="19">
         <v>422.61877322304298</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="20">
         <v>1149.0896287769101</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="15">
         <v>47755.735242465998</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="15">
         <v>11365.388071016199</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="15">
         <v>395.68016949951698</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="16">
         <v>59516.803482981697</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="15">
         <v>2517.6944201176202</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="15">
         <v>28874.825251541701</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="15">
         <v>17269.8107426735</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="16">
         <v>48662.330414332901</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="18">
         <v>888.25367380738305</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="18">
         <v>2687.4054011073099</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="19">
         <v>304.94790934813</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58" s="20">
         <v>3880.6069842628199</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>1507.19238744164</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="19">
         <v>6850.40273758483</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="19">
         <v>2805.1257080098399</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="20">
         <v>11162.720833036299</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="18">
         <v>517.22634454095396</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="18">
         <v>104.302058294535</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="19">
         <v>54.982469272375099</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59" s="20">
         <v>676.51087210786295</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="19">
         <v>32.549696287870397</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="19">
         <v>658.14907039499303</v>
       </c>
-      <c r="I59" s="18">
+      <c r="I59" s="19">
         <v>340.30789205813397</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J59" s="20">
         <v>1031.0066587409999</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="15">
         <v>644.86975598311403</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="15">
         <v>1811.7734384681</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="15">
         <v>73.502716755509397</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="16">
         <v>2530.14591120672</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="15">
         <v>315.98365456426097</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="15">
         <v>8511.8001855239909</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="15">
         <v>1784.2776258572301</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="16">
         <v>10612.0614659455</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="25">
         <v>70785.216790563107</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="25">
         <v>44535.522840695303</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="25">
         <v>2384.0360007704498</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="26">
         <v>117704.77563202901</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="25">
         <v>8019.3656083239302</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H61" s="25">
         <v>75955.575459822401</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="25">
         <v>39752.773122130297</v>
       </c>
-      <c r="J61" s="25">
+      <c r="J61" s="26">
         <v>123727.71419027699</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="28">
+      <c r="C62" s="29">
         <v>254346.64778780701</v>
       </c>
-      <c r="D62" s="28">
+      <c r="D62" s="29">
         <v>217939.329949245</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="29">
         <v>50980.997179174497</v>
       </c>
-      <c r="F62" s="29">
+      <c r="F62" s="30">
         <v>523266.97491622699</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="29">
         <v>61731.391758758</v>
       </c>
-      <c r="H62" s="28">
+      <c r="H62" s="29">
         <v>331499.12692167098</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="29">
         <v>174821.987026366</v>
       </c>
-      <c r="J62" s="29">
+      <c r="J62" s="30">
         <v>568052.50570679503</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="28">
+      <c r="C63" s="29">
         <v>2171693.5059092599</v>
       </c>
-      <c r="D63" s="28">
+      <c r="D63" s="29">
         <v>9055423.5217293892</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="29">
         <v>6122061.8056143904</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="30">
         <v>17349178.833253</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="29">
         <v>2320106.8643673002</v>
       </c>
-      <c r="H63" s="28">
+      <c r="H63" s="29">
         <v>8696043.9245618097</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="29">
         <v>5830161.4245581897</v>
       </c>
-      <c r="J63" s="29">
+      <c r="J63" s="30">
         <v>16846312.213487301</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="33">
         <v>297879.98005464597</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="33">
         <v>467952.59164445603</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="33">
         <v>299134.55901270901</v>
       </c>
-      <c r="F64" s="33">
+      <c r="F64" s="34">
         <v>1064967.13071181</v>
       </c>
-      <c r="G64" s="32">
+      <c r="G64" s="33">
         <v>76708.368253449094</v>
       </c>
-      <c r="H64" s="32">
+      <c r="H64" s="33">
         <v>616039.72306954395</v>
       </c>
-      <c r="I64" s="32">
+      <c r="I64" s="33">
         <v>318128.23453304602</v>
       </c>
-      <c r="J64" s="33">
+      <c r="J64" s="34">
         <v>1010876.32585604</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="36">
         <v>341189.27349578199</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="36">
         <v>2076623.9010374099</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="36">
         <v>1913035.1116131099</v>
       </c>
-      <c r="F65" s="33">
+      <c r="F65" s="34">
         <v>4330848.2861462999</v>
       </c>
-      <c r="G65" s="35">
+      <c r="G65" s="36">
         <v>789678.690098327</v>
       </c>
-      <c r="H65" s="35">
+      <c r="H65" s="36">
         <v>1967625.10984987</v>
       </c>
-      <c r="I65" s="35">
+      <c r="I65" s="36">
         <v>750841.31525552704</v>
       </c>
-      <c r="J65" s="33">
+      <c r="J65" s="34">
         <v>3508145.1152037298</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="33">
         <v>2426040.1536970702</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="33">
         <v>9273362.8516786397</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="33">
         <v>6173042.8027935596</v>
       </c>
-      <c r="F66" s="33">
+      <c r="F66" s="34">
         <v>17872445.808169302</v>
       </c>
-      <c r="G66" s="32">
+      <c r="G66" s="33">
         <v>2381838.2561260499</v>
       </c>
-      <c r="H66" s="32">
+      <c r="H66" s="33">
         <v>9027543.0514834691</v>
       </c>
-      <c r="I66" s="32">
+      <c r="I66" s="33">
         <v>6004983.4115845496</v>
       </c>
-      <c r="J66" s="33">
+      <c r="J66" s="34">
         <v>17414364.719194099</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C67" s="38">
         <v>53480.255086045901</v>
       </c>
-      <c r="D67" s="37">
+      <c r="D67" s="38">
         <v>61953.192404965797</v>
       </c>
-      <c r="E67" s="37">
+      <c r="E67" s="38">
         <v>17431.314924432801</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="39">
         <v>132864.76241544401</v>
       </c>
-      <c r="G67" s="37">
+      <c r="G67" s="38">
         <v>25480.535219067799</v>
       </c>
-      <c r="H67" s="37">
+      <c r="H67" s="38">
         <v>121516.469021205</v>
       </c>
-      <c r="I67" s="37">
+      <c r="I67" s="38">
         <v>58760.386503989597</v>
       </c>
-      <c r="J67" s="38">
+      <c r="J67" s="39">
         <v>205757.390744262</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="36">
         <v>118072.97158260499</v>
       </c>
-      <c r="D68" s="35">
+      <c r="D68" s="36">
         <v>94025.239352626493</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E68" s="36">
         <v>25702.779208534801</v>
       </c>
-      <c r="F68" s="33">
+      <c r="F68" s="34">
         <v>237800.99014376599</v>
       </c>
-      <c r="G68" s="35">
+      <c r="G68" s="36">
         <v>33984.9453264779</v>
       </c>
-      <c r="H68" s="35">
+      <c r="H68" s="36">
         <v>184741.142708753</v>
       </c>
-      <c r="I68" s="35">
+      <c r="I68" s="36">
         <v>85755.716508656405</v>
       </c>
-      <c r="J68" s="33">
+      <c r="J68" s="34">
         <v>304481.80454388697</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="36">
         <v>7632.6912520571996</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D69" s="36">
         <v>8469.5390098493099</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="36">
         <v>3457.0945124002701</v>
       </c>
-      <c r="F69" s="33">
+      <c r="F69" s="34">
         <v>19559.324774306799</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="36">
         <v>2261.8057986439499</v>
       </c>
-      <c r="H69" s="35">
+      <c r="H69" s="36">
         <v>24646.987493779001</v>
       </c>
-      <c r="I69" s="35">
+      <c r="I69" s="36">
         <v>13660.6847752825</v>
       </c>
-      <c r="J69" s="33">
+      <c r="J69" s="34">
         <v>40569.4780677054</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="36">
         <v>61470.054450137097</v>
       </c>
-      <c r="D70" s="35">
+      <c r="D70" s="36">
         <v>18322.875011615601</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E70" s="36">
         <v>323.51559762525602</v>
       </c>
-      <c r="F70" s="33">
+      <c r="F70" s="34">
         <v>80116.445059378006</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="36">
         <v>1861.3882220723599</v>
       </c>
-      <c r="H70" s="35">
+      <c r="H70" s="36">
         <v>20831.885964268698</v>
       </c>
-      <c r="I70" s="35">
+      <c r="I70" s="36">
         <v>13440.287359932099</v>
       </c>
-      <c r="J70" s="33">
+      <c r="J70" s="34">
         <v>36133.5615462731</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="36">
         <v>70785.216790563107</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="36">
         <v>44535.522840695303</v>
       </c>
-      <c r="E71" s="35">
+      <c r="E71" s="36">
         <v>2384.0360007704498</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F71" s="34">
         <v>117704.77563202901</v>
       </c>
-      <c r="G71" s="35">
+      <c r="G71" s="36">
         <v>8019.3656083239302</v>
       </c>
-      <c r="H71" s="35">
+      <c r="H71" s="36">
         <v>75955.575459822401</v>
       </c>
-      <c r="I71" s="35">
+      <c r="I71" s="36">
         <v>39752.773122130297</v>
       </c>
-      <c r="J71" s="33">
+      <c r="J71" s="34">
         <v>123727.71419027699</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="B72" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="36">
         <v>10892.6323516915</v>
       </c>
-      <c r="D72" s="35">
+      <c r="D72" s="36">
         <v>6674.9495178258403</v>
       </c>
-      <c r="E72" s="35">
+      <c r="E72" s="36">
         <v>2547.3222410028002</v>
       </c>
-      <c r="F72" s="33">
+      <c r="F72" s="34">
         <v>20114.904110520099</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="36">
         <v>3000.2068702750198</v>
       </c>
-      <c r="H72" s="35">
+      <c r="H72" s="36">
         <v>30631.094945534802</v>
       </c>
-      <c r="I72" s="35">
+      <c r="I72" s="36">
         <v>18217.527352905599</v>
       </c>
-      <c r="J72" s="33">
+      <c r="J72" s="34">
         <v>51848.8291687155</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="B73" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="35">
+      <c r="C73" s="36">
         <v>85704.773114269905</v>
       </c>
-      <c r="D73" s="35">
+      <c r="D73" s="36">
         <v>96468.401999752299</v>
       </c>
-      <c r="E73" s="35">
+      <c r="E73" s="36">
         <v>22153.177564248999</v>
       </c>
-      <c r="F73" s="33">
+      <c r="F73" s="34">
         <v>204326.35267827101</v>
       </c>
-      <c r="G73" s="35">
+      <c r="G73" s="36">
         <v>21138.355230758301</v>
       </c>
-      <c r="H73" s="35">
+      <c r="H73" s="36">
         <v>90775.0302305285</v>
       </c>
-      <c r="I73" s="35">
+      <c r="I73" s="36">
         <v>54687.6028836439</v>
       </c>
-      <c r="J73" s="33">
+      <c r="J73" s="34">
         <v>166600.98834493099</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="32">
+      <c r="C74" s="33">
         <v>57260.869398260598</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="33">
         <v>42079.946790517803</v>
       </c>
-      <c r="E74" s="32">
+      <c r="E74" s="33">
         <v>17976.436176098101</v>
       </c>
-      <c r="F74" s="33">
+      <c r="F74" s="34">
         <v>117317.252364877</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G74" s="33">
         <v>12572.766035566599</v>
       </c>
-      <c r="H74" s="32">
+      <c r="H74" s="33">
         <v>77348.242713922606</v>
       </c>
-      <c r="I74" s="32">
+      <c r="I74" s="33">
         <v>37543.626087400698</v>
       </c>
-      <c r="J74" s="33">
+      <c r="J74" s="34">
         <v>127464.63483689001</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="38">
         <v>124604.527456386</v>
       </c>
-      <c r="D75" s="37">
+      <c r="D75" s="38">
         <v>874235.47495037003</v>
       </c>
-      <c r="E75" s="37">
+      <c r="E75" s="38">
         <v>470325.912690764</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="39">
         <v>1469165.91509752</v>
       </c>
-      <c r="G75" s="37">
+      <c r="G75" s="38">
         <v>155733.63823866501</v>
       </c>
-      <c r="H75" s="37">
+      <c r="H75" s="38">
         <v>899502.80538542103</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I75" s="38">
         <v>321358.98453895102</v>
       </c>
-      <c r="J75" s="38">
+      <c r="J75" s="39">
         <v>1376595.42816304</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="34" t="s">
+      <c r="B76" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="36">
         <v>249227.27272336301</v>
       </c>
-      <c r="D76" s="35">
+      <c r="D76" s="36">
         <v>248979.713820581</v>
       </c>
-      <c r="E76" s="35">
+      <c r="E76" s="36">
         <v>56646.404194866001</v>
       </c>
-      <c r="F76" s="33">
+      <c r="F76" s="34">
         <v>554853.39073880995</v>
       </c>
-      <c r="G76" s="35">
+      <c r="G76" s="36">
         <v>42720.206632673602</v>
       </c>
-      <c r="H76" s="35">
+      <c r="H76" s="36">
         <v>260675.90901859</v>
       </c>
-      <c r="I76" s="35">
+      <c r="I76" s="36">
         <v>164614.35414071</v>
       </c>
-      <c r="J76" s="33">
+      <c r="J76" s="34">
         <v>468010.46979197301</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="32">
+      <c r="C77" s="33">
         <v>289139.37956689502</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D77" s="33">
         <v>3112700.0768666998</v>
       </c>
-      <c r="E77" s="32">
+      <c r="E77" s="33">
         <v>2257477.15267159</v>
       </c>
-      <c r="F77" s="33">
+      <c r="F77" s="34">
         <v>5659316.60910518</v>
       </c>
-      <c r="G77" s="32">
+      <c r="G77" s="33">
         <v>661957.17109892506</v>
       </c>
-      <c r="H77" s="32">
+      <c r="H77" s="33">
         <v>2850291.8629714102</v>
       </c>
-      <c r="I77" s="32">
+      <c r="I77" s="33">
         <v>2013911.3958079701</v>
       </c>
-      <c r="J77" s="33">
+      <c r="J77" s="34">
         <v>5526160.4298783001</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="37">
+      <c r="C78" s="38">
         <v>167086.77457896899</v>
       </c>
-      <c r="D78" s="37">
+      <c r="D78" s="38">
         <v>70213.532663095</v>
       </c>
-      <c r="E78" s="37">
+      <c r="E78" s="38">
         <v>1336.4317533211699</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78" s="39">
         <v>238636.73899538501</v>
       </c>
-      <c r="G78" s="37">
+      <c r="G78" s="38">
         <v>12357.522638636699</v>
       </c>
-      <c r="H78" s="37">
+      <c r="H78" s="38">
         <v>100972.389523946</v>
       </c>
-      <c r="I78" s="37">
+      <c r="I78" s="38">
         <v>57477.367148384197</v>
       </c>
-      <c r="J78" s="38">
+      <c r="J78" s="39">
         <v>170807.27931096699</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="36">
         <v>822815.04127967404</v>
       </c>
-      <c r="D79" s="35">
+      <c r="D79" s="36">
         <v>604451.38295063796</v>
       </c>
-      <c r="E79" s="35">
+      <c r="E79" s="36">
         <v>100003.241038718</v>
       </c>
-      <c r="F79" s="33">
+      <c r="F79" s="34">
         <v>1527269.66526903</v>
       </c>
-      <c r="G79" s="35">
+      <c r="G79" s="36">
         <v>78263.7470680064</v>
       </c>
-      <c r="H79" s="35">
+      <c r="H79" s="36">
         <v>490134.82222864998</v>
       </c>
-      <c r="I79" s="35">
+      <c r="I79" s="36">
         <v>434762.13941339997</v>
       </c>
-      <c r="J79" s="33">
+      <c r="J79" s="34">
         <v>1003160.70871006</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="36">
         <v>87259.873208838704</v>
       </c>
-      <c r="D80" s="35">
+      <c r="D80" s="36">
         <v>147725.79728614999</v>
       </c>
-      <c r="E80" s="35">
+      <c r="E80" s="36">
         <v>49644.565425853303</v>
       </c>
-      <c r="F80" s="33">
+      <c r="F80" s="34">
         <v>284630.23592084198</v>
       </c>
-      <c r="G80" s="35">
+      <c r="G80" s="36">
         <v>49373.869120121301</v>
       </c>
-      <c r="H80" s="35">
+      <c r="H80" s="36">
         <v>230526.737397725</v>
       </c>
-      <c r="I80" s="35">
+      <c r="I80" s="36">
         <v>117344.619877982</v>
       </c>
-      <c r="J80" s="33">
+      <c r="J80" s="34">
         <v>397245.22639582801</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="32">
+      <c r="C81" s="33">
         <v>1348878.46462959</v>
       </c>
-      <c r="D81" s="32">
+      <c r="D81" s="33">
         <v>8450972.1387787499</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="33">
         <v>6022058.5645756703</v>
       </c>
-      <c r="F81" s="33">
+      <c r="F81" s="34">
         <v>15821909.167983999</v>
       </c>
-      <c r="G81" s="32">
+      <c r="G81" s="33">
         <v>2241843.1172992899</v>
       </c>
-      <c r="H81" s="32">
+      <c r="H81" s="33">
         <v>8205909.1023331601</v>
       </c>
-      <c r="I81" s="32">
+      <c r="I81" s="33">
         <v>5395399.2851447901</v>
       </c>
-      <c r="J81" s="33">
+      <c r="J81" s="34">
         <v>15843151.504777201</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="37">
+      <c r="C82" s="38">
         <v>24124.345034378399</v>
       </c>
-      <c r="D82" s="37">
+      <c r="D82" s="38">
         <v>32530.4330289389</v>
       </c>
-      <c r="E82" s="37">
+      <c r="E82" s="38">
         <v>2279.4935360045401</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="39">
         <v>58934.271599321903</v>
       </c>
-      <c r="G82" s="37">
+      <c r="G82" s="38">
         <v>4968.3471071428103</v>
       </c>
-      <c r="H82" s="37">
+      <c r="H82" s="38">
         <v>51610.889747023997</v>
       </c>
-      <c r="I82" s="37">
+      <c r="I82" s="38">
         <v>27737.980399497501</v>
       </c>
-      <c r="J82" s="38">
+      <c r="J82" s="39">
         <v>84317.217253664305</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="35">
+      <c r="C83" s="36">
         <v>3346.2002182564702</v>
       </c>
-      <c r="D83" s="35">
+      <c r="D83" s="36">
         <v>1632.75539719534</v>
       </c>
-      <c r="E83" s="35">
+      <c r="E83" s="36">
         <v>1364.54254759896</v>
       </c>
-      <c r="F83" s="33">
+      <c r="F83" s="34">
         <v>6343.49816305077</v>
       </c>
-      <c r="G83" s="35">
+      <c r="G83" s="36">
         <v>4860.0205646263403</v>
       </c>
-      <c r="H83" s="35">
+      <c r="H83" s="36">
         <v>21562.1406077057</v>
       </c>
-      <c r="I83" s="35">
+      <c r="I83" s="36">
         <v>10073.2890753917</v>
       </c>
-      <c r="J83" s="33">
+      <c r="J83" s="34">
         <v>36495.450247723697</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="35">
+      <c r="C84" s="36">
         <v>159879.37984293199</v>
       </c>
-      <c r="D84" s="35">
+      <c r="D84" s="36">
         <v>117065.32498280999</v>
       </c>
-      <c r="E84" s="35">
+      <c r="E84" s="36">
         <v>29402.232223921601</v>
       </c>
-      <c r="F84" s="33">
+      <c r="F84" s="34">
         <v>306346.93704966299</v>
       </c>
-      <c r="G84" s="35">
+      <c r="G84" s="36">
         <v>39457.352538593201</v>
       </c>
-      <c r="H84" s="35">
+      <c r="H84" s="36">
         <v>219118.03633989699</v>
       </c>
-      <c r="I84" s="35">
+      <c r="I84" s="36">
         <v>106758.844747273</v>
       </c>
-      <c r="J84" s="33">
+      <c r="J84" s="34">
         <v>365334.23362576403</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B85" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="35">
+      <c r="C85" s="36">
         <v>100427.779079999</v>
       </c>
-      <c r="D85" s="35">
+      <c r="D85" s="36">
         <v>477478.08236038499</v>
       </c>
-      <c r="E85" s="35">
+      <c r="E85" s="36">
         <v>367600.47301059501</v>
       </c>
-      <c r="F85" s="33">
+      <c r="F85" s="34">
         <v>945506.33445097902</v>
       </c>
-      <c r="G85" s="35">
+      <c r="G85" s="36">
         <v>245180.63784824</v>
       </c>
-      <c r="H85" s="35">
+      <c r="H85" s="36">
         <v>705405.11821165995</v>
       </c>
-      <c r="I85" s="35">
+      <c r="I85" s="36">
         <v>266069.98188109603</v>
       </c>
-      <c r="J85" s="33">
+      <c r="J85" s="34">
         <v>1216655.7379409999</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="34" t="s">
+      <c r="B86" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="35">
+      <c r="C86" s="36">
         <v>70184.625325857807</v>
       </c>
-      <c r="D86" s="35">
+      <c r="D86" s="36">
         <v>66242.184373095806</v>
       </c>
-      <c r="E86" s="35">
+      <c r="E86" s="36">
         <v>17935.927006147202</v>
       </c>
-      <c r="F86" s="33">
+      <c r="F86" s="34">
         <v>154362.73670510101</v>
       </c>
-      <c r="G86" s="35">
+      <c r="G86" s="36">
         <v>16691.615796613802</v>
       </c>
-      <c r="H86" s="35">
+      <c r="H86" s="36">
         <v>56470.026857493001</v>
       </c>
-      <c r="I86" s="35">
+      <c r="I86" s="36">
         <v>38161.830761347897</v>
       </c>
-      <c r="J86" s="33">
+      <c r="J86" s="34">
         <v>111323.473415455</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="34" t="s">
+      <c r="B87" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="35">
+      <c r="C87" s="36">
         <v>814110.78041243902</v>
       </c>
-      <c r="D87" s="35">
+      <c r="D87" s="36">
         <v>2423001.2144424301</v>
       </c>
-      <c r="E87" s="35">
+      <c r="E87" s="36">
         <v>1971839.0321225</v>
       </c>
-      <c r="F87" s="33">
+      <c r="F87" s="34">
         <v>5208951.0269773602</v>
       </c>
-      <c r="G87" s="35">
+      <c r="G87" s="36">
         <v>683584.52216733596</v>
       </c>
-      <c r="H87" s="35">
+      <c r="H87" s="36">
         <v>2171960.53407965</v>
       </c>
-      <c r="I87" s="35">
+      <c r="I87" s="36">
         <v>994209.87166133104</v>
       </c>
-      <c r="J87" s="33">
+      <c r="J87" s="34">
         <v>3849754.92790832</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="34" t="s">
+      <c r="B88" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="32">
+      <c r="C88" s="33">
         <v>1253967.04378321</v>
       </c>
-      <c r="D88" s="32">
+      <c r="D88" s="33">
         <v>6155412.8570937803</v>
       </c>
-      <c r="E88" s="32">
+      <c r="E88" s="33">
         <v>3782621.1023467998</v>
       </c>
-      <c r="F88" s="33">
+      <c r="F88" s="34">
         <v>11192001.003223799</v>
       </c>
-      <c r="G88" s="32">
+      <c r="G88" s="33">
         <v>1387095.7601035</v>
       </c>
-      <c r="H88" s="32">
+      <c r="H88" s="33">
         <v>5801416.30564004</v>
       </c>
-      <c r="I88" s="32">
+      <c r="I88" s="33">
         <v>4561971.6130586201</v>
       </c>
-      <c r="J88" s="33">
+      <c r="J88" s="34">
         <v>11750483.6788022</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B89" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="37">
+      <c r="C89" s="38">
         <v>66710.383781308497</v>
       </c>
-      <c r="D89" s="37">
+      <c r="D89" s="38">
         <v>53651.506231828796</v>
       </c>
-      <c r="E89" s="37">
+      <c r="E89" s="38">
         <v>4424.2363063207904</v>
       </c>
-      <c r="F89" s="38">
+      <c r="F89" s="39">
         <v>124786.126319458</v>
       </c>
-      <c r="G89" s="37">
+      <c r="G89" s="38">
         <v>10142.262454568699</v>
       </c>
-      <c r="H89" s="37">
+      <c r="H89" s="38">
         <v>87904.932392144707</v>
       </c>
-      <c r="I89" s="37">
+      <c r="I89" s="38">
         <v>46912.293096956098</v>
       </c>
-      <c r="J89" s="38">
+      <c r="J89" s="39">
         <v>144959.48794367001</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="34" t="s">
+      <c r="B90" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="35">
+      <c r="C90" s="36">
         <v>12526.901201492101</v>
       </c>
-      <c r="D90" s="35">
+      <c r="D90" s="36">
         <v>14603.680454277999</v>
       </c>
-      <c r="E90" s="35">
+      <c r="E90" s="36">
         <v>68626.583972947003</v>
       </c>
-      <c r="F90" s="33">
+      <c r="F90" s="34">
         <v>95757.165628717106</v>
       </c>
-      <c r="G90" s="35">
+      <c r="G90" s="36">
         <v>13762.806095427601</v>
       </c>
-      <c r="H90" s="35">
+      <c r="H90" s="36">
         <v>97135.724176415402</v>
       </c>
-      <c r="I90" s="35">
+      <c r="I90" s="36">
         <v>37124.518509174202</v>
       </c>
-      <c r="J90" s="33">
+      <c r="J90" s="34">
         <v>148023.04878101699</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="34" t="s">
+      <c r="B91" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="35">
+      <c r="C91" s="36">
         <v>391.68406080150601</v>
       </c>
-      <c r="D91" s="35">
+      <c r="D91" s="36">
         <v>2233.1242564541099</v>
       </c>
-      <c r="E91" s="35">
+      <c r="E91" s="36">
         <v>1383.2862793443201</v>
       </c>
-      <c r="F91" s="33">
+      <c r="F91" s="34">
         <v>4008.0945965999399</v>
       </c>
-      <c r="G91" s="35">
+      <c r="G91" s="36">
         <v>722.72273011243396</v>
       </c>
-      <c r="H91" s="35">
+      <c r="H91" s="36">
         <v>5425.6999040759802</v>
       </c>
-      <c r="I91" s="35">
+      <c r="I91" s="36">
         <v>2683.5724144401602</v>
       </c>
-      <c r="J91" s="33">
+      <c r="J91" s="34">
         <v>8831.9950486285707</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="35">
+      <c r="C92" s="36">
         <v>13402.0762681414</v>
       </c>
-      <c r="D92" s="35">
+      <c r="D92" s="36">
         <v>273429.49502950202</v>
       </c>
-      <c r="E92" s="35">
+      <c r="E92" s="36">
         <v>83265.824250693098</v>
       </c>
-      <c r="F92" s="33">
+      <c r="F92" s="34">
         <v>370097.39554833702</v>
       </c>
-      <c r="G92" s="35">
+      <c r="G92" s="36">
         <v>49647.249018504801</v>
       </c>
-      <c r="H92" s="35">
+      <c r="H92" s="36">
         <v>256466.10379901199</v>
       </c>
-      <c r="I92" s="35">
+      <c r="I92" s="36">
         <v>106365.71407647101</v>
       </c>
-      <c r="J92" s="33">
+      <c r="J92" s="34">
         <v>412479.066893988</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="34" t="s">
+      <c r="B93" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="35">
+      <c r="C93" s="36">
         <v>10655.271109973601</v>
       </c>
-      <c r="D93" s="35">
+      <c r="D93" s="36">
         <v>25092.830752386799</v>
       </c>
-      <c r="E93" s="35">
+      <c r="E93" s="36">
         <v>1348.8601571983099</v>
       </c>
-      <c r="F93" s="33">
+      <c r="F93" s="34">
         <v>37096.962019558698</v>
       </c>
-      <c r="G93" s="35">
+      <c r="G93" s="36">
         <v>3445.01176164651</v>
       </c>
-      <c r="H93" s="35">
+      <c r="H93" s="36">
         <v>25574.728119946001</v>
       </c>
-      <c r="I93" s="35">
+      <c r="I93" s="36">
         <v>15586.9486705453</v>
       </c>
-      <c r="J93" s="33">
+      <c r="J93" s="34">
         <v>44606.688552137901</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="34" t="s">
+      <c r="B94" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C94" s="33">
         <v>98160.755873021102</v>
       </c>
-      <c r="D94" s="32">
+      <c r="D94" s="33">
         <v>47679.466524670701</v>
       </c>
-      <c r="E94" s="32">
+      <c r="E94" s="33">
         <v>8119.2965703806904</v>
       </c>
-      <c r="F94" s="33">
+      <c r="F94" s="34">
         <v>153959.51896807301</v>
       </c>
-      <c r="G94" s="32">
+      <c r="G94" s="33">
         <v>12037.9658651471</v>
       </c>
-      <c r="H94" s="32">
+      <c r="H94" s="33">
         <v>85791.2854223592</v>
       </c>
-      <c r="I94" s="32">
+      <c r="I94" s="33">
         <v>62740.916602788297</v>
       </c>
-      <c r="J94" s="33">
+      <c r="J94" s="34">
         <v>160570.16789029501</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B95" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="37">
+      <c r="C95" s="38">
         <v>146041.11224112599</v>
       </c>
-      <c r="D95" s="37">
+      <c r="D95" s="38">
         <v>66670.056195279001</v>
       </c>
-      <c r="E95" s="37">
+      <c r="E95" s="38">
         <v>7236.9492397328604</v>
       </c>
-      <c r="F95" s="38">
+      <c r="F95" s="39">
         <v>219948.117676138</v>
       </c>
-      <c r="G95" s="37">
+      <c r="G95" s="38">
         <v>14505.415799085</v>
       </c>
-      <c r="H95" s="37">
+      <c r="H95" s="38">
         <v>125754.174249327</v>
       </c>
-      <c r="I95" s="37">
+      <c r="I95" s="38">
         <v>68561.872484875901</v>
       </c>
-      <c r="J95" s="38">
+      <c r="J95" s="39">
         <v>208821.462533288</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="34" t="s">
+      <c r="B96" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="35">
+      <c r="C96" s="36">
         <v>95118.613171951307</v>
       </c>
-      <c r="D96" s="35">
+      <c r="D96" s="36">
         <v>61024.226912423102</v>
       </c>
-      <c r="E96" s="35">
+      <c r="E96" s="36">
         <v>89318.1210238684</v>
       </c>
-      <c r="F96" s="33">
+      <c r="F96" s="34">
         <v>245460.96110824301</v>
       </c>
-      <c r="G96" s="35">
+      <c r="G96" s="36">
         <v>30902.372473736301</v>
       </c>
-      <c r="H96" s="35">
+      <c r="H96" s="36">
         <v>172700.786455508</v>
       </c>
-      <c r="I96" s="35">
+      <c r="I96" s="36">
         <v>72195.583495792802</v>
       </c>
-      <c r="J96" s="33">
+      <c r="J96" s="34">
         <v>275798.74242503801</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="41">
         <v>101705.687015524</v>
       </c>
-      <c r="D97" s="40">
+      <c r="D97" s="41">
         <v>17985.215632494601</v>
       </c>
-      <c r="E97" s="40">
+      <c r="E97" s="41">
         <v>1311.9321232100699</v>
       </c>
-      <c r="F97" s="41">
+      <c r="F97" s="42">
         <v>121002.83477122799</v>
       </c>
-      <c r="G97" s="40">
+      <c r="G97" s="41">
         <v>8395.0896687624499</v>
       </c>
-      <c r="H97" s="40">
+      <c r="H97" s="41">
         <v>48716.972669739698</v>
       </c>
-      <c r="I97" s="40">
+      <c r="I97" s="41">
         <v>39319.251348786704</v>
       </c>
-      <c r="J97" s="41">
+      <c r="J97" s="42">
         <v>96431.313687288901</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="42"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="32"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="46" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="46" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="46" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="46" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" s="46" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="48" t="s">
+      <c r="B105" s="50" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="50"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="51" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="51" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B105" r:id="rId1" display="If you would like to explore these data further, look up the historic time series for these indicators, or produce interactive visualisations of these data, please visit the website http://oe.cd/afdd2020."/>
+    <hyperlink ref="B107" r:id="rId2"/>
+    <hyperlink ref="B108" r:id="rId3" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>